--- a/odds/EBC League 2025 Betting Odds.xlsx
+++ b/odds/EBC League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>Record</t>
   </si>
@@ -30,12 +30,12 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Abyss Diamond Eyes</t>
+  </si>
+  <si>
     <t>Werewolves of London</t>
   </si>
   <si>
-    <t>Abyss Diamond Eyes</t>
-  </si>
-  <si>
     <t>Riley  Read option</t>
   </si>
   <si>
@@ -48,24 +48,24 @@
     <t>Bay Harbor Pisser</t>
   </si>
   <si>
+    <t>Jimoke Jukes</t>
+  </si>
+  <si>
     <t xml:space="preserve">THE POOL </t>
   </si>
   <si>
-    <t>Jimoke Jukes</t>
-  </si>
-  <si>
     <t>CeeDee's Nuts</t>
   </si>
   <si>
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
+    <t>9-2</t>
+  </si>
+  <si>
     <t>7-4</t>
   </si>
   <si>
-    <t>9-2</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -81,10 +81,13 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.7%</t>
-  </si>
-  <si>
-    <t>96.6%</t>
+    <t>99.9%</t>
+  </si>
+  <si>
+    <t>99.3%</t>
+  </si>
+  <si>
+    <t>97.1%</t>
   </si>
   <si>
     <t>87.7%</t>
@@ -93,25 +96,28 @@
     <t>51.2%</t>
   </si>
   <si>
-    <t>28.7%</t>
-  </si>
-  <si>
-    <t>28.6%</t>
+    <t>29.8%</t>
+  </si>
+  <si>
+    <t>28.4%</t>
   </si>
   <si>
     <t>3.9%</t>
   </si>
   <si>
-    <t>3.6%</t>
+    <t>2.7%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-33233</t>
-  </si>
-  <si>
-    <t>-2841</t>
+    <t>-99900</t>
+  </si>
+  <si>
+    <t>-14186</t>
+  </si>
+  <si>
+    <t>-3348</t>
   </si>
   <si>
     <t>-713</t>
@@ -120,79 +126,85 @@
     <t>-105</t>
   </si>
   <si>
-    <t>+248</t>
-  </si>
-  <si>
-    <t>+250</t>
+    <t>+236</t>
+  </si>
+  <si>
+    <t>+252</t>
   </si>
   <si>
     <t>+2464</t>
   </si>
   <si>
-    <t>+2678</t>
+    <t>+3604</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>90.6%</t>
+    <t>89.3%</t>
+  </si>
+  <si>
+    <t>7.6%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-835</t>
+  </si>
+  <si>
+    <t>+1216</t>
+  </si>
+  <si>
+    <t>+4067</t>
+  </si>
+  <si>
+    <t>+16567</t>
+  </si>
+  <si>
+    <t>+99900</t>
+  </si>
+  <si>
+    <t>+∞</t>
+  </si>
+  <si>
+    <t>46.8%</t>
+  </si>
+  <si>
+    <t>39.1%</t>
   </si>
   <si>
     <t>6.7%</t>
   </si>
   <si>
-    <t>2.0%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-964</t>
+    <t>4.1%</t>
+  </si>
+  <si>
+    <t>3.3%</t>
+  </si>
+  <si>
+    <t>+114</t>
+  </si>
+  <si>
+    <t>+156</t>
   </si>
   <si>
     <t>+1393</t>
   </si>
   <si>
-    <t>+4900</t>
-  </si>
-  <si>
-    <t>+14186</t>
-  </si>
-  <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>48.4%</t>
-  </si>
-  <si>
-    <t>38.2%</t>
-  </si>
-  <si>
-    <t>7.1%</t>
-  </si>
-  <si>
-    <t>3.4%</t>
-  </si>
-  <si>
-    <t>2.9%</t>
-  </si>
-  <si>
-    <t>+107</t>
-  </si>
-  <si>
-    <t>+162</t>
-  </si>
-  <si>
-    <t>+1308</t>
-  </si>
-  <si>
-    <t>+2841</t>
-  </si>
-  <si>
-    <t>+3348</t>
+    <t>+2339</t>
+  </si>
+  <si>
+    <t>+2930</t>
   </si>
 </sst>
 </file>
@@ -581,7 +593,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -592,10 +604,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -603,13 +615,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -620,10 +632,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -634,10 +646,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -648,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -659,13 +671,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -673,13 +685,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -690,10 +702,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -704,10 +716,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -739,30 +751,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -770,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -787,10 +799,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -801,10 +813,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -815,24 +827,24 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -843,24 +855,24 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -871,10 +883,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -912,10 +924,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -926,66 +938,66 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -996,10 +1008,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1010,24 +1022,24 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1035,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/odds/EBC League 2025 Betting Odds.xlsx
+++ b/odds/EBC League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>Record</t>
   </si>
@@ -30,181 +30,142 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Werewolves of London</t>
+  </si>
+  <si>
+    <t>Pleasant Valley Panthers</t>
+  </si>
+  <si>
     <t>Abyss Diamond Eyes</t>
   </si>
   <si>
-    <t>Werewolves of London</t>
-  </si>
-  <si>
     <t>Riley  Read option</t>
   </si>
   <si>
-    <t>Pleasant Valley Panthers</t>
-  </si>
-  <si>
     <t>Inter Miami CF</t>
   </si>
   <si>
     <t>Bay Harbor Pisser</t>
   </si>
   <si>
+    <t xml:space="preserve">First down syndrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE POOL </t>
+  </si>
+  <si>
     <t>Jimoke Jukes</t>
   </si>
   <si>
-    <t xml:space="preserve">THE POOL </t>
-  </si>
-  <si>
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t xml:space="preserve">First down syndrome </t>
-  </si>
-  <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.9%</t>
-  </si>
-  <si>
     <t>99.3%</t>
   </si>
   <si>
-    <t>97.1%</t>
-  </si>
-  <si>
-    <t>87.7%</t>
-  </si>
-  <si>
-    <t>51.2%</t>
-  </si>
-  <si>
-    <t>29.8%</t>
-  </si>
-  <si>
-    <t>28.4%</t>
-  </si>
-  <si>
-    <t>3.9%</t>
-  </si>
-  <si>
-    <t>2.7%</t>
+    <t>86.7%</t>
+  </si>
+  <si>
+    <t>85.1%</t>
+  </si>
+  <si>
+    <t>10.4%</t>
+  </si>
+  <si>
+    <t>10.1%</t>
+  </si>
+  <si>
+    <t>8.4%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-99900</t>
-  </si>
-  <si>
     <t>-14186</t>
   </si>
   <si>
-    <t>-3348</t>
-  </si>
-  <si>
-    <t>-713</t>
-  </si>
-  <si>
-    <t>-105</t>
-  </si>
-  <si>
-    <t>+236</t>
-  </si>
-  <si>
-    <t>+252</t>
-  </si>
-  <si>
-    <t>+2464</t>
-  </si>
-  <si>
-    <t>+3604</t>
+    <t>-652</t>
+  </si>
+  <si>
+    <t>-571</t>
+  </si>
+  <si>
+    <t>+862</t>
+  </si>
+  <si>
+    <t>+890</t>
+  </si>
+  <si>
+    <t>+1090</t>
+  </si>
+  <si>
+    <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>89.3%</t>
-  </si>
-  <si>
-    <t>7.6%</t>
-  </si>
-  <si>
-    <t>2.4%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-835</t>
-  </si>
-  <si>
-    <t>+1216</t>
-  </si>
-  <si>
-    <t>+4067</t>
-  </si>
-  <si>
-    <t>+16567</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>46.8%</t>
-  </si>
-  <si>
-    <t>39.1%</t>
-  </si>
-  <si>
-    <t>6.7%</t>
-  </si>
-  <si>
-    <t>4.1%</t>
-  </si>
-  <si>
-    <t>3.3%</t>
-  </si>
-  <si>
-    <t>+114</t>
-  </si>
-  <si>
-    <t>+156</t>
-  </si>
-  <si>
-    <t>+1393</t>
-  </si>
-  <si>
-    <t>+2339</t>
-  </si>
-  <si>
-    <t>+2930</t>
+    <t>94.4%</t>
+  </si>
+  <si>
+    <t>5.6%</t>
+  </si>
+  <si>
+    <t>-1686</t>
+  </si>
+  <si>
+    <t>+1686</t>
+  </si>
+  <si>
+    <t>76.7%</t>
+  </si>
+  <si>
+    <t>9.4%</t>
+  </si>
+  <si>
+    <t>9.1%</t>
+  </si>
+  <si>
+    <t>4.8%</t>
+  </si>
+  <si>
+    <t>-329</t>
+  </si>
+  <si>
+    <t>+964</t>
+  </si>
+  <si>
+    <t>+999</t>
+  </si>
+  <si>
+    <t>+1983</t>
   </si>
 </sst>
 </file>
@@ -590,10 +551,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -607,7 +568,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -615,13 +576,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -629,13 +590,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -643,13 +604,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -660,10 +621,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -671,13 +632,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -688,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -702,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -713,13 +674,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -751,114 +712,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -869,24 +830,24 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -918,72 +879,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -994,66 +955,66 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/odds/EBC League 2025 Betting Odds.xlsx
+++ b/odds/EBC League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
   <si>
     <t>Record</t>
   </si>
@@ -36,16 +36,19 @@
     <t>Pleasant Valley Panthers</t>
   </si>
   <si>
+    <t>Inter Miami CF</t>
+  </si>
+  <si>
+    <t>OBJYN</t>
+  </si>
+  <si>
     <t>Abyss Diamond Eyes</t>
   </si>
   <si>
     <t>Riley  Read option</t>
   </si>
   <si>
-    <t>Inter Miami CF</t>
-  </si>
-  <si>
-    <t>Bay Harbor Pisser</t>
+    <t>Jimoke Jukes</t>
   </si>
   <si>
     <t xml:space="preserve">First down syndrome </t>
@@ -54,118 +57,67 @@
     <t xml:space="preserve">THE POOL </t>
   </si>
   <si>
-    <t>Jimoke Jukes</t>
-  </si>
-  <si>
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>10-2</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>3-9</t>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.3%</t>
-  </si>
-  <si>
-    <t>86.7%</t>
-  </si>
-  <si>
-    <t>85.1%</t>
-  </si>
-  <si>
-    <t>10.4%</t>
-  </si>
-  <si>
-    <t>10.1%</t>
-  </si>
-  <si>
-    <t>8.4%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-14186</t>
-  </si>
-  <si>
-    <t>-652</t>
-  </si>
-  <si>
-    <t>-571</t>
-  </si>
-  <si>
-    <t>+862</t>
-  </si>
-  <si>
-    <t>+890</t>
-  </si>
-  <si>
-    <t>+1090</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>94.4%</t>
-  </si>
-  <si>
-    <t>5.6%</t>
-  </si>
-  <si>
-    <t>-1686</t>
-  </si>
-  <si>
-    <t>+1686</t>
-  </si>
-  <si>
-    <t>76.7%</t>
-  </si>
-  <si>
-    <t>9.4%</t>
-  </si>
-  <si>
-    <t>9.1%</t>
-  </si>
-  <si>
-    <t>4.8%</t>
-  </si>
-  <si>
-    <t>-329</t>
-  </si>
-  <si>
-    <t>+964</t>
-  </si>
-  <si>
-    <t>+999</t>
-  </si>
-  <si>
-    <t>+1983</t>
+    <t>54.3%</t>
+  </si>
+  <si>
+    <t>20.4%</t>
+  </si>
+  <si>
+    <t>19.3%</t>
+  </si>
+  <si>
+    <t>6.0%</t>
+  </si>
+  <si>
+    <t>-119</t>
+  </si>
+  <si>
+    <t>+390</t>
+  </si>
+  <si>
+    <t>+418</t>
+  </si>
+  <si>
+    <t>+1567</t>
   </si>
 </sst>
 </file>
@@ -554,7 +506,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -568,7 +520,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -582,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -590,13 +542,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -604,13 +556,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -621,10 +573,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -632,13 +584,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -646,13 +598,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -660,13 +612,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -677,10 +629,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -712,16 +664,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -732,10 +684,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -746,94 +698,94 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -844,10 +796,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -885,10 +837,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -896,41 +848,41 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -941,10 +893,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -955,66 +907,66 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/odds/EBC League 2025 Betting Odds.xlsx
+++ b/odds/EBC League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
   <si>
     <t>Record</t>
   </si>
@@ -60,25 +60,22 @@
     <t>CeeDee's Nuts</t>
   </si>
   <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>11-2</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>4-9</t>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>100.0%</t>
@@ -94,30 +91,6 @@
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>54.3%</t>
-  </si>
-  <si>
-    <t>20.4%</t>
-  </si>
-  <si>
-    <t>19.3%</t>
-  </si>
-  <si>
-    <t>6.0%</t>
-  </si>
-  <si>
-    <t>-119</t>
-  </si>
-  <si>
-    <t>+390</t>
-  </si>
-  <si>
-    <t>+418</t>
-  </si>
-  <si>
-    <t>+1567</t>
   </si>
 </sst>
 </file>
@@ -503,10 +476,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -517,10 +490,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -531,10 +504,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -542,13 +515,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -556,13 +529,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -570,13 +543,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -584,13 +557,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -598,13 +571,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -612,13 +585,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -626,13 +599,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -667,13 +640,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -684,10 +657,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -698,10 +671,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -712,10 +685,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -723,13 +696,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -737,13 +710,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -751,13 +724,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -765,13 +738,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -779,13 +752,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -793,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -834,139 +807,139 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
